--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="312">
   <si>
     <t>p25_nom</t>
   </si>
@@ -76,7 +76,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>LabSUMAPAZ</t>
@@ -1308,13 +1311,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U116"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,13 +1381,16 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1393,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1402,13 +1408,13 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="O2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1422,13 +1428,16 @@
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1437,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1446,13 +1455,13 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="O3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1466,13 +1475,16 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1481,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1490,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1510,13 +1522,16 @@
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1525,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1534,13 +1549,13 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1554,13 +1569,16 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1569,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1578,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1598,13 +1616,16 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1613,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1622,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1642,13 +1663,16 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1657,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1666,13 +1690,13 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1686,13 +1710,16 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1701,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1710,13 +1737,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1730,13 +1757,16 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1745,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1754,13 +1784,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1774,13 +1804,16 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1789,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1798,13 +1831,13 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="O11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1818,13 +1851,16 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1833,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1842,13 +1878,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="O12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1862,13 +1898,16 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1877,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1886,13 +1925,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1906,13 +1945,16 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1921,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1930,13 +1972,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1950,13 +1992,16 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1965,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -1974,13 +2019,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1994,13 +2039,16 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2009,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2018,13 +2066,13 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="O16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2038,13 +2086,16 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2053,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I17">
         <v>11</v>
@@ -2062,13 +2113,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2082,13 +2133,16 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2097,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -2106,13 +2160,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2126,13 +2180,16 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2141,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19">
         <v>11</v>
@@ -2150,13 +2207,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2170,13 +2227,16 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2185,7 +2245,7 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I20">
         <v>11</v>
@@ -2194,13 +2254,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2214,13 +2274,16 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2229,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -2238,13 +2301,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2258,13 +2321,16 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2273,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I22">
         <v>11</v>
@@ -2282,13 +2348,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2302,13 +2368,16 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2317,7 +2386,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I23">
         <v>12</v>
@@ -2326,13 +2395,13 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2346,13 +2415,16 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2361,7 +2433,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -2370,13 +2442,13 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2390,13 +2462,16 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2405,7 +2480,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2414,13 +2489,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2434,13 +2509,16 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2449,7 +2527,7 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I26">
         <v>13</v>
@@ -2458,13 +2536,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="O26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2478,13 +2556,16 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2493,7 +2574,7 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2502,13 +2583,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L27" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="O27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2522,13 +2603,16 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2537,7 +2621,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -2546,13 +2630,13 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="O28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2566,13 +2650,16 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2581,7 +2668,7 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -2590,13 +2677,13 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="O29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2610,13 +2697,16 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2625,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -2634,13 +2724,13 @@
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="O30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2654,13 +2744,16 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2669,7 +2762,7 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I31">
         <v>19</v>
@@ -2678,13 +2771,13 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2698,13 +2791,16 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2713,7 +2809,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I32">
         <v>19</v>
@@ -2722,13 +2818,13 @@
         <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2742,13 +2838,16 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2757,7 +2856,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I33">
         <v>19</v>
@@ -2766,13 +2865,13 @@
         <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2786,13 +2885,16 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2801,7 +2903,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I34">
         <v>20</v>
@@ -2810,13 +2912,13 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="O34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2830,13 +2932,16 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2845,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I35">
         <v>21</v>
@@ -2854,13 +2959,13 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2874,13 +2979,16 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2889,7 +2997,7 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I36">
         <v>21</v>
@@ -2898,13 +3006,13 @@
         <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2918,13 +3026,16 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2933,7 +3044,7 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I37">
         <v>22</v>
@@ -2942,13 +3053,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2962,13 +3073,16 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2977,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I38">
         <v>22</v>
@@ -2986,13 +3100,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3006,13 +3120,16 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3021,7 +3138,7 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I39">
         <v>23</v>
@@ -3030,13 +3147,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="O39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3050,13 +3167,16 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3065,7 +3185,7 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I40">
         <v>24</v>
@@ -3074,13 +3194,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3094,13 +3214,16 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3109,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I41">
         <v>24</v>
@@ -3118,13 +3241,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L41" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3138,13 +3261,16 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3153,7 +3279,7 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I42">
         <v>24</v>
@@ -3162,13 +3288,13 @@
         <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3182,13 +3308,16 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3197,7 +3326,7 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I43">
         <v>24</v>
@@ -3206,13 +3335,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3226,13 +3355,16 @@
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3241,7 +3373,7 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I44">
         <v>26</v>
@@ -3250,13 +3382,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3270,13 +3402,16 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3285,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I45">
         <v>26</v>
@@ -3294,13 +3429,13 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L45" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3314,13 +3449,16 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3329,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -3338,13 +3476,13 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L46" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="O46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3358,13 +3496,16 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3373,7 +3514,7 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I47">
         <v>28</v>
@@ -3382,13 +3523,13 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L47" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="O47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3402,13 +3543,16 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3417,7 +3561,7 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I48">
         <v>29</v>
@@ -3426,13 +3570,13 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L48" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -3446,13 +3590,16 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3461,7 +3608,7 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I49">
         <v>29</v>
@@ -3470,13 +3617,13 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L49" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3490,13 +3637,16 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3505,7 +3655,7 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I50">
         <v>29</v>
@@ -3514,13 +3664,13 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L50" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3534,13 +3684,16 @@
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3549,7 +3702,7 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I51">
         <v>30</v>
@@ -3558,13 +3711,13 @@
         <v>59</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L51" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -3578,13 +3731,16 @@
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3593,7 +3749,7 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I52">
         <v>30</v>
@@ -3602,13 +3758,13 @@
         <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L52" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -3622,13 +3778,16 @@
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3637,7 +3796,7 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I53">
         <v>30</v>
@@ -3646,13 +3805,13 @@
         <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L53" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -3666,13 +3825,16 @@
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3681,7 +3843,7 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I54">
         <v>30</v>
@@ -3690,13 +3852,13 @@
         <v>59</v>
       </c>
       <c r="K54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L54" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -3710,13 +3872,16 @@
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3725,7 +3890,7 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I55">
         <v>30</v>
@@ -3734,13 +3899,13 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L55" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -3754,13 +3919,16 @@
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3769,7 +3937,7 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I56">
         <v>31</v>
@@ -3778,13 +3946,13 @@
         <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L56" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -3798,13 +3966,16 @@
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3813,7 +3984,7 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57">
         <v>31</v>
@@ -3822,13 +3993,13 @@
         <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L57" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -3842,13 +4013,16 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3857,7 +4031,7 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I58">
         <v>32</v>
@@ -3866,13 +4040,13 @@
         <v>61</v>
       </c>
       <c r="K58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L58" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="O58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -3886,13 +4060,16 @@
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3901,7 +4078,7 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I59">
         <v>33</v>
@@ -3910,13 +4087,13 @@
         <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L59" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -3930,13 +4107,16 @@
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3945,7 +4125,7 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I60">
         <v>33</v>
@@ -3954,13 +4134,13 @@
         <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L60" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -3974,13 +4154,16 @@
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3989,7 +4172,7 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I61">
         <v>33</v>
@@ -3998,13 +4181,13 @@
         <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L61" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4018,13 +4201,16 @@
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4033,7 +4219,7 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I62">
         <v>34</v>
@@ -4042,13 +4228,13 @@
         <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L62" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="O62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4062,13 +4248,16 @@
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4077,7 +4266,7 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I63">
         <v>35</v>
@@ -4086,13 +4275,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L63" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="O63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4106,13 +4295,16 @@
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4121,7 +4313,7 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I64">
         <v>36</v>
@@ -4130,13 +4322,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L64" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="O64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4150,13 +4342,16 @@
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4165,7 +4360,7 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I65">
         <v>37</v>
@@ -4174,13 +4369,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L65" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4194,13 +4389,16 @@
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4209,7 +4407,7 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I66">
         <v>37</v>
@@ -4218,13 +4416,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L66" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4238,13 +4436,16 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4253,7 +4454,7 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I67">
         <v>38</v>
@@ -4262,13 +4463,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L67" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4282,13 +4483,16 @@
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4297,7 +4501,7 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I68">
         <v>38</v>
@@ -4306,13 +4510,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L68" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4326,13 +4530,16 @@
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4341,7 +4548,7 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I69">
         <v>39</v>
@@ -4350,13 +4557,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L69" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -4370,13 +4577,16 @@
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4385,7 +4595,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I70">
         <v>39</v>
@@ -4394,13 +4604,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L70" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -4414,13 +4624,16 @@
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4429,7 +4642,7 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I71">
         <v>39</v>
@@ -4438,13 +4651,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L71" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -4458,13 +4671,16 @@
       <c r="U71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4473,7 +4689,7 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I72">
         <v>41</v>
@@ -4482,13 +4698,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L72" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="O72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -4502,13 +4718,16 @@
       <c r="U72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4517,7 +4736,7 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -4526,13 +4745,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L73" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="O73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -4546,13 +4765,16 @@
       <c r="U73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4561,7 +4783,7 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I74">
         <v>44</v>
@@ -4570,13 +4792,13 @@
         <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L74" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -4590,13 +4812,16 @@
       <c r="U74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4605,7 +4830,7 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I75">
         <v>44</v>
@@ -4614,13 +4839,13 @@
         <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L75" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -4634,13 +4859,16 @@
       <c r="U75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4649,7 +4877,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I76">
         <v>45</v>
@@ -4658,13 +4886,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L76" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="O76" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -4678,13 +4906,16 @@
       <c r="U76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4693,7 +4924,7 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I77">
         <v>46</v>
@@ -4702,13 +4933,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L77" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O77" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -4722,13 +4953,16 @@
       <c r="U77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4737,7 +4971,7 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I78">
         <v>46</v>
@@ -4746,13 +4980,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L78" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -4766,13 +5000,16 @@
       <c r="U78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4781,7 +5018,7 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I79">
         <v>46</v>
@@ -4790,13 +5027,13 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L79" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -4810,13 +5047,16 @@
       <c r="U79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4825,7 +5065,7 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I80">
         <v>48</v>
@@ -4834,13 +5074,13 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L80" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="O80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -4854,13 +5094,16 @@
       <c r="U80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4869,7 +5112,7 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I81">
         <v>49</v>
@@ -4878,13 +5121,13 @@
         <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L81" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="O81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -4898,13 +5141,16 @@
       <c r="U81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4913,7 +5159,7 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4922,13 +5168,13 @@
         <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L82" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -4942,13 +5188,16 @@
       <c r="U82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4957,7 +5206,7 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4966,13 +5215,13 @@
         <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L83" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -4986,13 +5235,16 @@
       <c r="U83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5001,7 +5253,7 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -5010,13 +5262,13 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L84" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5030,13 +5282,16 @@
       <c r="U84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5045,7 +5300,7 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I85">
         <v>51</v>
@@ -5054,13 +5309,13 @@
         <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L85" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O85" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -5074,13 +5329,16 @@
       <c r="U85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5089,7 +5347,7 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I86">
         <v>51</v>
@@ -5098,13 +5356,13 @@
         <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L86" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5118,13 +5376,16 @@
       <c r="U86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5133,7 +5394,7 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87">
         <v>51</v>
@@ -5142,13 +5403,13 @@
         <v>95</v>
       </c>
       <c r="K87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L87" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -5162,13 +5423,16 @@
       <c r="U87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5177,7 +5441,7 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I88">
         <v>51</v>
@@ -5186,13 +5450,13 @@
         <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L88" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -5206,13 +5470,16 @@
       <c r="U88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5221,7 +5488,7 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89">
         <v>51</v>
@@ -5230,13 +5497,13 @@
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L89" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -5250,13 +5517,16 @@
       <c r="U89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5265,7 +5535,7 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I90">
         <v>51</v>
@@ -5274,13 +5544,13 @@
         <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L90" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -5294,13 +5564,16 @@
       <c r="U90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5309,7 +5582,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I91">
         <v>51</v>
@@ -5318,13 +5591,13 @@
         <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L91" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -5338,13 +5611,16 @@
       <c r="U91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5353,7 +5629,7 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I92">
         <v>51</v>
@@ -5362,13 +5638,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L92" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5382,13 +5658,16 @@
       <c r="U92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5397,7 +5676,7 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I93">
         <v>53</v>
@@ -5406,13 +5685,13 @@
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L93" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="O93" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5426,13 +5705,16 @@
       <c r="U93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5441,7 +5723,7 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I94">
         <v>54</v>
@@ -5450,13 +5732,13 @@
         <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L94" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O94" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -5470,13 +5752,16 @@
       <c r="U94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5485,7 +5770,7 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I95">
         <v>54</v>
@@ -5494,13 +5779,13 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L95" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -5514,13 +5799,16 @@
       <c r="U95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5529,7 +5817,7 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I96">
         <v>55</v>
@@ -5538,13 +5826,13 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L96" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -5558,13 +5846,16 @@
       <c r="U96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5573,7 +5864,7 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I97">
         <v>55</v>
@@ -5582,13 +5873,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L97" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -5602,13 +5893,16 @@
       <c r="U97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -5617,7 +5911,7 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I98">
         <v>56</v>
@@ -5626,13 +5920,13 @@
         <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L98" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="O98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -5646,13 +5940,16 @@
       <c r="U98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5661,7 +5958,7 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I99">
         <v>57</v>
@@ -5670,13 +5967,13 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L99" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="O99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -5690,13 +5987,16 @@
       <c r="U99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5705,7 +6005,7 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I100">
         <v>58</v>
@@ -5714,13 +6014,13 @@
         <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L100" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -5734,13 +6034,16 @@
       <c r="U100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5749,7 +6052,7 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I101">
         <v>58</v>
@@ -5758,13 +6061,13 @@
         <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L101" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -5778,13 +6081,16 @@
       <c r="U101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5793,7 +6099,7 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I102">
         <v>59</v>
@@ -5802,13 +6108,13 @@
         <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L102" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="O102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -5822,13 +6128,16 @@
       <c r="U102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5837,7 +6146,7 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I103">
         <v>60</v>
@@ -5846,13 +6155,13 @@
         <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L103" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="O103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -5866,13 +6175,16 @@
       <c r="U103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5881,7 +6193,7 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I104">
         <v>61</v>
@@ -5890,13 +6202,13 @@
         <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L104" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="O104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -5910,13 +6222,16 @@
       <c r="U104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5925,7 +6240,7 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I105">
         <v>64</v>
@@ -5934,13 +6249,13 @@
         <v>110</v>
       </c>
       <c r="K105" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L105" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="O105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -5954,13 +6269,16 @@
       <c r="U105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5969,7 +6287,7 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I106">
         <v>65</v>
@@ -5978,13 +6296,13 @@
         <v>111</v>
       </c>
       <c r="K106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L106" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="O106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -5998,13 +6316,16 @@
       <c r="U106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6013,7 +6334,7 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I107">
         <v>68</v>
@@ -6022,13 +6343,13 @@
         <v>115</v>
       </c>
       <c r="K107" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L107" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -6042,13 +6363,16 @@
       <c r="U107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6057,7 +6381,7 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I108">
         <v>68</v>
@@ -6066,13 +6390,13 @@
         <v>115</v>
       </c>
       <c r="K108" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L108" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O108" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -6086,13 +6410,16 @@
       <c r="U108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -6101,7 +6428,7 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I109">
         <v>69</v>
@@ -6110,13 +6437,13 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L109" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="O109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -6130,13 +6457,16 @@
       <c r="U109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6145,7 +6475,7 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I110">
         <v>71</v>
@@ -6154,13 +6484,13 @@
         <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L110" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -6174,13 +6504,16 @@
       <c r="U110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6189,7 +6522,7 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I111">
         <v>71</v>
@@ -6198,13 +6531,13 @@
         <v>119</v>
       </c>
       <c r="K111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L111" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -6218,13 +6551,16 @@
       <c r="U111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6233,7 +6569,7 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I112">
         <v>71</v>
@@ -6242,13 +6578,13 @@
         <v>119</v>
       </c>
       <c r="K112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L112" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -6262,13 +6598,16 @@
       <c r="U112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6277,7 +6616,7 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I113">
         <v>71</v>
@@ -6286,13 +6625,13 @@
         <v>119</v>
       </c>
       <c r="K113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -6306,13 +6645,16 @@
       <c r="U113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6321,7 +6663,7 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I114">
         <v>71</v>
@@ -6330,13 +6672,13 @@
         <v>119</v>
       </c>
       <c r="K114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -6350,13 +6692,16 @@
       <c r="U114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6365,7 +6710,7 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I115">
         <v>71</v>
@@ -6374,13 +6719,13 @@
         <v>119</v>
       </c>
       <c r="K115" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -6394,13 +6739,16 @@
       <c r="U115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6409,7 +6757,7 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I116">
         <v>71</v>
@@ -6418,13 +6766,13 @@
         <v>119</v>
       </c>
       <c r="K116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O116" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -6436,6 +6784,9 @@
         <v>0</v>
       </c>
       <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="315">
   <si>
     <t>p25_nom</t>
   </si>
@@ -82,6 +82,9 @@
     <t>c4</t>
   </si>
   <si>
+    <t>nota_iniciativa</t>
+  </si>
+  <si>
     <t>LabSUMAPAZ</t>
   </si>
   <si>
@@ -767,6 +770,12 @@
   </si>
   <si>
     <t>Para esta vigencia se incluyó la capacitación "Curso de Implementación en ITIL", a través de esta se pudo impartir conocimientos en "Information Technology Instraestructure Library"</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Índice de Innovación Pública 2023</t>
@@ -1311,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:W116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,22 +1393,25 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1408,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="O2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1431,22 +1443,25 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1455,13 +1470,13 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="O3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1478,22 +1493,25 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1502,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1525,22 +1543,25 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1549,13 +1570,13 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1572,22 +1593,25 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1596,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1619,22 +1643,25 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1643,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1666,22 +1693,25 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>252</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1690,13 +1720,13 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1713,22 +1743,25 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1737,13 +1770,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1760,22 +1793,25 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1784,13 +1820,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1807,22 +1843,25 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1831,13 +1870,13 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="O11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1854,22 +1893,25 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1878,13 +1920,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L12" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="O12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1901,22 +1943,25 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1925,13 +1970,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1948,22 +1993,25 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1972,13 +2020,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1995,22 +2043,25 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -2019,13 +2070,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2042,22 +2093,25 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2066,13 +2120,13 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="O16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2089,22 +2143,25 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>252</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I17">
         <v>11</v>
@@ -2113,13 +2170,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O17" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2136,22 +2193,25 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -2160,13 +2220,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2183,22 +2243,25 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>252</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I19">
         <v>11</v>
@@ -2207,13 +2270,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2230,22 +2293,25 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I20">
         <v>11</v>
@@ -2254,13 +2320,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2277,22 +2343,25 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -2301,13 +2370,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2324,22 +2393,25 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I22">
         <v>11</v>
@@ -2348,13 +2420,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O22" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2371,22 +2443,25 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I23">
         <v>12</v>
@@ -2395,13 +2470,13 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2418,22 +2493,25 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -2442,13 +2520,13 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2465,22 +2543,25 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2489,13 +2570,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2512,22 +2593,25 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I26">
         <v>13</v>
@@ -2536,13 +2620,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="O26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2559,22 +2643,25 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2583,13 +2670,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L27" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="O27" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2606,22 +2693,25 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -2630,13 +2720,13 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="O28" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2653,22 +2743,25 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -2677,13 +2770,13 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="O29" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2700,22 +2793,25 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
       </c>
       <c r="G30">
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -2724,13 +2820,13 @@
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="O30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2747,22 +2843,25 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
       </c>
       <c r="G31">
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I31">
         <v>19</v>
@@ -2771,13 +2870,13 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O31" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2794,22 +2893,25 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
       </c>
       <c r="G32">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I32">
         <v>19</v>
@@ -2818,13 +2920,13 @@
         <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2841,22 +2943,25 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
       </c>
       <c r="G33">
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I33">
         <v>19</v>
@@ -2865,13 +2970,13 @@
         <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O33" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2888,22 +2993,25 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
       </c>
       <c r="G34">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I34">
         <v>20</v>
@@ -2912,13 +3020,13 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="O34" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2935,22 +3043,25 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>252</v>
       </c>
       <c r="G35">
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I35">
         <v>21</v>
@@ -2959,13 +3070,13 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L35" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O35" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2982,22 +3093,25 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>252</v>
       </c>
       <c r="G36">
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I36">
         <v>21</v>
@@ -3006,13 +3120,13 @@
         <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O36" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3029,22 +3143,25 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>252</v>
       </c>
       <c r="G37">
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I37">
         <v>22</v>
@@ -3053,13 +3170,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O37" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3076,22 +3193,25 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
       </c>
       <c r="G38">
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I38">
         <v>22</v>
@@ -3100,13 +3220,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3123,22 +3243,25 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>252</v>
       </c>
       <c r="G39">
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I39">
         <v>23</v>
@@ -3147,13 +3270,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="O39" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3170,22 +3293,25 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>252</v>
       </c>
       <c r="G40">
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I40">
         <v>24</v>
@@ -3194,13 +3320,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L40" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O40" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3217,22 +3343,25 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>252</v>
       </c>
       <c r="G41">
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I41">
         <v>24</v>
@@ -3241,13 +3370,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L41" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O41" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3264,22 +3393,25 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
       </c>
       <c r="G42">
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I42">
         <v>24</v>
@@ -3288,13 +3420,13 @@
         <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L42" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O42" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3311,22 +3443,25 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>252</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I43">
         <v>24</v>
@@ -3335,13 +3470,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L43" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O43" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3358,22 +3493,25 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
       </c>
       <c r="G44">
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I44">
         <v>26</v>
@@ -3382,13 +3520,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L44" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O44" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3405,22 +3543,25 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>252</v>
       </c>
       <c r="G45">
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I45">
         <v>26</v>
@@ -3429,13 +3570,13 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L45" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3452,22 +3593,25 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
       </c>
       <c r="G46">
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -3476,13 +3620,13 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L46" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="O46" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3499,22 +3643,25 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
       </c>
       <c r="G47">
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I47">
         <v>28</v>
@@ -3523,13 +3670,13 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L47" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="O47" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3546,22 +3693,25 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
       </c>
       <c r="G48">
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I48">
         <v>29</v>
@@ -3570,13 +3720,13 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L48" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O48" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -3593,22 +3743,25 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>252</v>
       </c>
       <c r="G49">
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I49">
         <v>29</v>
@@ -3617,13 +3770,13 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L49" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O49" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3640,22 +3793,25 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
       </c>
       <c r="G50">
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I50">
         <v>29</v>
@@ -3664,13 +3820,13 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L50" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O50" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3687,22 +3843,25 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>252</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I51">
         <v>30</v>
@@ -3711,13 +3870,13 @@
         <v>59</v>
       </c>
       <c r="K51" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L51" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O51" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -3734,22 +3893,25 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
       </c>
       <c r="G52">
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I52">
         <v>30</v>
@@ -3758,13 +3920,13 @@
         <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L52" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O52" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -3781,22 +3943,25 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="C53" t="s">
+        <v>252</v>
       </c>
       <c r="G53">
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I53">
         <v>30</v>
@@ -3805,13 +3970,13 @@
         <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L53" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O53" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -3828,22 +3993,25 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>252</v>
       </c>
       <c r="G54">
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I54">
         <v>30</v>
@@ -3852,13 +4020,13 @@
         <v>59</v>
       </c>
       <c r="K54" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L54" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O54" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -3875,22 +4043,25 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
       </c>
       <c r="G55">
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I55">
         <v>30</v>
@@ -3899,13 +4070,13 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L55" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -3922,22 +4093,25 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>252</v>
       </c>
       <c r="G56">
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I56">
         <v>31</v>
@@ -3946,13 +4120,13 @@
         <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L56" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O56" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -3969,22 +4143,25 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
       </c>
       <c r="G57">
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I57">
         <v>31</v>
@@ -3993,13 +4170,13 @@
         <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L57" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O57" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4016,22 +4193,25 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>252</v>
       </c>
       <c r="G58">
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I58">
         <v>32</v>
@@ -4040,13 +4220,13 @@
         <v>61</v>
       </c>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L58" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="O58" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4063,22 +4243,25 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>252</v>
       </c>
       <c r="G59">
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I59">
         <v>33</v>
@@ -4087,13 +4270,13 @@
         <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L59" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O59" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4110,22 +4293,25 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>252</v>
       </c>
       <c r="G60">
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I60">
         <v>33</v>
@@ -4134,13 +4320,13 @@
         <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L60" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O60" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4157,22 +4343,25 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
       </c>
       <c r="G61">
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I61">
         <v>33</v>
@@ -4181,13 +4370,13 @@
         <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L61" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4204,22 +4393,25 @@
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>252</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I62">
         <v>34</v>
@@ -4228,13 +4420,13 @@
         <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L62" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="O62" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4251,22 +4443,25 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
       </c>
       <c r="G63">
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I63">
         <v>35</v>
@@ -4275,13 +4470,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L63" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="O63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4298,22 +4493,25 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
       </c>
       <c r="G64">
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I64">
         <v>36</v>
@@ -4322,13 +4520,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L64" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="O64" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4345,22 +4543,25 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>252</v>
       </c>
       <c r="G65">
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I65">
         <v>37</v>
@@ -4369,13 +4570,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L65" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O65" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4392,22 +4593,25 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>252</v>
       </c>
       <c r="G66">
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I66">
         <v>37</v>
@@ -4416,13 +4620,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L66" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O66" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4439,22 +4643,25 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>252</v>
       </c>
       <c r="G67">
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I67">
         <v>38</v>
@@ -4463,13 +4670,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L67" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O67" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4486,22 +4693,25 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>252</v>
       </c>
       <c r="G68">
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I68">
         <v>38</v>
@@ -4510,13 +4720,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L68" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4533,22 +4743,25 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>252</v>
       </c>
       <c r="G69">
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I69">
         <v>39</v>
@@ -4557,13 +4770,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L69" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O69" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -4580,22 +4793,25 @@
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
       </c>
       <c r="G70">
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I70">
         <v>39</v>
@@ -4604,13 +4820,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L70" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O70" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -4627,22 +4843,25 @@
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
       </c>
       <c r="G71">
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I71">
         <v>39</v>
@@ -4651,13 +4870,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L71" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O71" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -4674,22 +4893,25 @@
       <c r="V71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>252</v>
       </c>
       <c r="G72">
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I72">
         <v>41</v>
@@ -4698,13 +4920,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L72" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="O72" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -4721,22 +4943,25 @@
       <c r="V72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>252</v>
       </c>
       <c r="G73">
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -4745,13 +4970,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L73" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="O73" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -4768,22 +4993,25 @@
       <c r="V73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
       </c>
       <c r="G74">
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I74">
         <v>44</v>
@@ -4792,13 +5020,13 @@
         <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L74" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O74" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -4815,22 +5043,25 @@
       <c r="V74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
       </c>
       <c r="G75">
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I75">
         <v>44</v>
@@ -4839,13 +5070,13 @@
         <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L75" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O75" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -4862,22 +5093,25 @@
       <c r="V75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>252</v>
       </c>
       <c r="G76">
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I76">
         <v>45</v>
@@ -4886,13 +5120,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L76" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="O76" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -4909,22 +5143,25 @@
       <c r="V76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>252</v>
       </c>
       <c r="G77">
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I77">
         <v>46</v>
@@ -4933,13 +5170,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L77" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O77" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -4956,22 +5193,25 @@
       <c r="V77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>252</v>
       </c>
       <c r="G78">
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I78">
         <v>46</v>
@@ -4980,13 +5220,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L78" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O78" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -5003,22 +5243,25 @@
       <c r="V78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>252</v>
       </c>
       <c r="G79">
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I79">
         <v>46</v>
@@ -5027,13 +5270,13 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L79" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O79" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -5050,22 +5293,25 @@
       <c r="V79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="C80" t="s">
+        <v>252</v>
       </c>
       <c r="G80">
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I80">
         <v>48</v>
@@ -5074,13 +5320,13 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L80" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="O80" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -5097,22 +5343,25 @@
       <c r="V80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="C81" t="s">
+        <v>252</v>
       </c>
       <c r="G81">
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I81">
         <v>49</v>
@@ -5121,13 +5370,13 @@
         <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L81" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="O81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5144,22 +5393,25 @@
       <c r="V81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>252</v>
       </c>
       <c r="G82">
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -5168,13 +5420,13 @@
         <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L82" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5191,22 +5443,25 @@
       <c r="V82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="C83" t="s">
+        <v>252</v>
       </c>
       <c r="G83">
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -5215,13 +5470,13 @@
         <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L83" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O83" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5238,22 +5493,25 @@
       <c r="V83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>252</v>
       </c>
       <c r="G84">
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -5262,13 +5520,13 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L84" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O84" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5285,22 +5543,25 @@
       <c r="V84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>252</v>
       </c>
       <c r="G85">
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I85">
         <v>51</v>
@@ -5309,13 +5570,13 @@
         <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L85" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O85" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -5332,22 +5593,25 @@
       <c r="V85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
       </c>
       <c r="G86">
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I86">
         <v>51</v>
@@ -5356,13 +5620,13 @@
         <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L86" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O86" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5379,22 +5643,25 @@
       <c r="V86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
       </c>
       <c r="G87">
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I87">
         <v>51</v>
@@ -5403,13 +5670,13 @@
         <v>95</v>
       </c>
       <c r="K87" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L87" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O87" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -5426,22 +5693,25 @@
       <c r="V87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="C88" t="s">
+        <v>252</v>
       </c>
       <c r="G88">
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I88">
         <v>51</v>
@@ -5450,13 +5720,13 @@
         <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L88" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O88" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -5473,22 +5743,25 @@
       <c r="V88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
+        <v>224</v>
+      </c>
+      <c r="C89" t="s">
+        <v>252</v>
       </c>
       <c r="G89">
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I89">
         <v>51</v>
@@ -5497,13 +5770,13 @@
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L89" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O89" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -5520,22 +5793,25 @@
       <c r="V89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>252</v>
       </c>
       <c r="G90">
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I90">
         <v>51</v>
@@ -5544,13 +5820,13 @@
         <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L90" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O90" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -5567,22 +5843,25 @@
       <c r="V90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
+        <v>252</v>
       </c>
       <c r="G91">
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I91">
         <v>51</v>
@@ -5591,13 +5870,13 @@
         <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L91" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O91" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -5614,22 +5893,25 @@
       <c r="V91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>252</v>
       </c>
       <c r="G92">
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I92">
         <v>51</v>
@@ -5638,13 +5920,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L92" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O92" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5661,22 +5943,25 @@
       <c r="V92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
+        <v>228</v>
+      </c>
+      <c r="C93" t="s">
+        <v>252</v>
       </c>
       <c r="G93">
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I93">
         <v>53</v>
@@ -5685,13 +5970,13 @@
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L93" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="O93" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5708,22 +5993,25 @@
       <c r="V93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
       </c>
       <c r="G94">
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I94">
         <v>54</v>
@@ -5732,13 +6020,13 @@
         <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L94" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O94" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -5755,22 +6043,25 @@
       <c r="V94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="C95" t="s">
+        <v>252</v>
       </c>
       <c r="G95">
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I95">
         <v>54</v>
@@ -5779,13 +6070,13 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L95" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O95" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -5802,22 +6093,25 @@
       <c r="V95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="C96" t="s">
+        <v>252</v>
       </c>
       <c r="G96">
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I96">
         <v>55</v>
@@ -5826,13 +6120,13 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L96" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O96" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -5849,22 +6143,25 @@
       <c r="V96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="C97" t="s">
+        <v>252</v>
       </c>
       <c r="G97">
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I97">
         <v>55</v>
@@ -5873,13 +6170,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L97" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O97" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -5896,22 +6193,25 @@
       <c r="V97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="C98" t="s">
+        <v>253</v>
       </c>
       <c r="G98">
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I98">
         <v>56</v>
@@ -5920,13 +6220,13 @@
         <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L98" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="O98" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -5943,22 +6243,25 @@
       <c r="V98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="C99" t="s">
+        <v>252</v>
       </c>
       <c r="G99">
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I99">
         <v>57</v>
@@ -5967,13 +6270,13 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L99" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="O99" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -5990,22 +6293,25 @@
       <c r="V99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="C100" t="s">
+        <v>252</v>
       </c>
       <c r="G100">
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I100">
         <v>58</v>
@@ -6014,13 +6320,13 @@
         <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L100" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O100" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -6037,22 +6343,25 @@
       <c r="V100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
       </c>
       <c r="G101">
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I101">
         <v>58</v>
@@ -6061,13 +6370,13 @@
         <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L101" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6084,22 +6393,25 @@
       <c r="V101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>252</v>
       </c>
       <c r="G102">
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I102">
         <v>59</v>
@@ -6108,13 +6420,13 @@
         <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L102" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="O102" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -6131,22 +6443,25 @@
       <c r="V102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>252</v>
       </c>
       <c r="G103">
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I103">
         <v>60</v>
@@ -6155,13 +6470,13 @@
         <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L103" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="O103" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -6178,22 +6493,25 @@
       <c r="V103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
+        <v>252</v>
       </c>
       <c r="G104">
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I104">
         <v>61</v>
@@ -6202,13 +6520,13 @@
         <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L104" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="O104" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -6225,22 +6543,25 @@
       <c r="V104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>252</v>
       </c>
       <c r="G105">
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I105">
         <v>64</v>
@@ -6249,13 +6570,13 @@
         <v>110</v>
       </c>
       <c r="K105" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L105" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="O105" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -6272,22 +6593,25 @@
       <c r="V105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>252</v>
       </c>
       <c r="G106">
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I106">
         <v>65</v>
@@ -6296,13 +6620,13 @@
         <v>111</v>
       </c>
       <c r="K106" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L106" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="O106" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -6319,22 +6643,25 @@
       <c r="V106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>252</v>
       </c>
       <c r="G107">
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I107">
         <v>68</v>
@@ -6343,13 +6670,13 @@
         <v>115</v>
       </c>
       <c r="K107" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L107" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O107" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -6366,22 +6693,25 @@
       <c r="V107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="C108" t="s">
+        <v>252</v>
       </c>
       <c r="G108">
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I108">
         <v>68</v>
@@ -6390,13 +6720,13 @@
         <v>115</v>
       </c>
       <c r="K108" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L108" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O108" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -6413,22 +6743,25 @@
       <c r="V108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>253</v>
       </c>
       <c r="G109">
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I109">
         <v>69</v>
@@ -6437,13 +6770,13 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L109" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="O109" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -6460,22 +6793,25 @@
       <c r="V109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>252</v>
       </c>
       <c r="G110">
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I110">
         <v>71</v>
@@ -6484,13 +6820,13 @@
         <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L110" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O110" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -6507,22 +6843,25 @@
       <c r="V110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
       </c>
       <c r="G111">
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I111">
         <v>71</v>
@@ -6531,13 +6870,13 @@
         <v>119</v>
       </c>
       <c r="K111" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L111" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O111" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -6554,22 +6893,25 @@
       <c r="V111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>252</v>
       </c>
       <c r="G112">
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I112">
         <v>71</v>
@@ -6578,13 +6920,13 @@
         <v>119</v>
       </c>
       <c r="K112" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L112" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O112" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -6601,22 +6943,25 @@
       <c r="V112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
+        <v>252</v>
       </c>
       <c r="G113">
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I113">
         <v>71</v>
@@ -6625,13 +6970,13 @@
         <v>119</v>
       </c>
       <c r="K113" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O113" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -6648,22 +6993,25 @@
       <c r="V113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>252</v>
       </c>
       <c r="G114">
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I114">
         <v>71</v>
@@ -6672,13 +7020,13 @@
         <v>119</v>
       </c>
       <c r="K114" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O114" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -6695,22 +7043,25 @@
       <c r="V114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>252</v>
       </c>
       <c r="G115">
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I115">
         <v>71</v>
@@ -6719,13 +7070,13 @@
         <v>119</v>
       </c>
       <c r="K115" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O115" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -6742,22 +7093,25 @@
       <c r="V115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>252</v>
       </c>
       <c r="G116">
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I116">
         <v>71</v>
@@ -6766,13 +7120,13 @@
         <v>119</v>
       </c>
       <c r="K116" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O116" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -6787,6 +7141,9 @@
         <v>0</v>
       </c>
       <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="313">
   <si>
     <t>p25_nom</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1320,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W116"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,28 +1384,22 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1420,13 +1408,13 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="O2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1440,28 +1428,22 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1470,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="O3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1490,28 +1472,22 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1520,13 +1496,13 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1540,28 +1516,22 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1570,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1590,28 +1560,22 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1620,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1640,28 +1604,22 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1670,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1690,28 +1648,22 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1720,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1740,28 +1692,22 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1770,13 +1716,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1790,28 +1736,22 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1820,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1840,28 +1780,22 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1870,13 +1804,13 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1890,28 +1824,22 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1920,13 +1848,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L12" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="O12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1940,28 +1868,22 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1970,13 +1892,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1990,28 +1912,22 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -2020,13 +1936,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2040,28 +1956,22 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -2070,13 +1980,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2090,28 +2000,22 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2120,13 +2024,13 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2140,28 +2044,22 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I17">
         <v>11</v>
@@ -2170,13 +2068,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2190,28 +2088,22 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -2220,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2240,28 +2132,22 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I19">
         <v>11</v>
@@ -2270,13 +2156,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2290,28 +2176,22 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I20">
         <v>11</v>
@@ -2320,13 +2200,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2340,28 +2220,22 @@
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -2370,13 +2244,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2390,28 +2264,22 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I22">
         <v>11</v>
@@ -2420,13 +2288,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2440,28 +2308,22 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I23">
         <v>12</v>
@@ -2470,13 +2332,13 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2490,28 +2352,22 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -2520,13 +2376,13 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2540,28 +2396,22 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2570,13 +2420,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2590,28 +2440,22 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I26">
         <v>13</v>
@@ -2620,13 +2464,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="O26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2640,28 +2484,22 @@
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2670,13 +2508,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L27" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="O27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2690,28 +2528,22 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -2720,13 +2552,13 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="O28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2740,28 +2572,22 @@
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -2770,13 +2596,13 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="O29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2790,28 +2616,22 @@
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G30">
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -2820,13 +2640,13 @@
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="O30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2840,28 +2660,22 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G31">
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I31">
         <v>19</v>
@@ -2870,13 +2684,13 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2890,28 +2704,22 @@
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G32">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I32">
         <v>19</v>
@@ -2920,13 +2728,13 @@
         <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2940,28 +2748,22 @@
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G33">
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I33">
         <v>19</v>
@@ -2970,13 +2772,13 @@
         <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2990,28 +2792,22 @@
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G34">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I34">
         <v>20</v>
@@ -3020,13 +2816,13 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="O34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3040,28 +2836,22 @@
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G35">
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I35">
         <v>21</v>
@@ -3070,13 +2860,13 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L35" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3090,28 +2880,22 @@
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36">
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I36">
         <v>21</v>
@@ -3120,13 +2904,13 @@
         <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3140,28 +2924,22 @@
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G37">
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I37">
         <v>22</v>
@@ -3170,13 +2948,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3190,28 +2968,22 @@
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G38">
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I38">
         <v>22</v>
@@ -3220,13 +2992,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3240,28 +3012,22 @@
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G39">
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I39">
         <v>23</v>
@@ -3270,13 +3036,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="O39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3290,28 +3056,22 @@
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G40">
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I40">
         <v>24</v>
@@ -3320,13 +3080,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L40" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3340,28 +3100,22 @@
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G41">
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I41">
         <v>24</v>
@@ -3370,13 +3124,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L41" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3390,28 +3144,22 @@
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G42">
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I42">
         <v>24</v>
@@ -3420,13 +3168,13 @@
         <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L42" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3440,28 +3188,22 @@
       <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I43">
         <v>24</v>
@@ -3470,13 +3212,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L43" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3490,28 +3232,22 @@
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G44">
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I44">
         <v>26</v>
@@ -3520,13 +3256,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L44" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3540,28 +3276,22 @@
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G45">
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I45">
         <v>26</v>
@@ -3570,13 +3300,13 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L45" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3590,28 +3320,22 @@
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G46">
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -3620,13 +3344,13 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L46" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="O46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3640,28 +3364,22 @@
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G47">
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I47">
         <v>28</v>
@@ -3670,13 +3388,13 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L47" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="O47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3690,28 +3408,22 @@
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G48">
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I48">
         <v>29</v>
@@ -3720,13 +3432,13 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L48" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -3740,28 +3452,22 @@
       <c r="U48">
         <v>0</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G49">
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I49">
         <v>29</v>
@@ -3770,13 +3476,13 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L49" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3790,28 +3496,22 @@
       <c r="U49">
         <v>0</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G50">
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I50">
         <v>29</v>
@@ -3820,13 +3520,13 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L50" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3840,28 +3540,22 @@
       <c r="U50">
         <v>0</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I51">
         <v>30</v>
@@ -3870,13 +3564,13 @@
         <v>59</v>
       </c>
       <c r="K51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L51" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -3890,28 +3584,22 @@
       <c r="U51">
         <v>0</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G52">
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I52">
         <v>30</v>
@@ -3920,13 +3608,13 @@
         <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L52" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -3940,28 +3628,22 @@
       <c r="U52">
         <v>0</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G53">
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I53">
         <v>30</v>
@@ -3970,13 +3652,13 @@
         <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L53" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -3990,28 +3672,22 @@
       <c r="U53">
         <v>0</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54">
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I54">
         <v>30</v>
@@ -4020,13 +3696,13 @@
         <v>59</v>
       </c>
       <c r="K54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L54" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O54" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4040,28 +3716,22 @@
       <c r="U54">
         <v>0</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G55">
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I55">
         <v>30</v>
@@ -4070,13 +3740,13 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L55" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4090,28 +3760,22 @@
       <c r="U55">
         <v>0</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G56">
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I56">
         <v>31</v>
@@ -4120,13 +3784,13 @@
         <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L56" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4140,28 +3804,22 @@
       <c r="U56">
         <v>0</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G57">
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I57">
         <v>31</v>
@@ -4170,13 +3828,13 @@
         <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L57" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4190,28 +3848,22 @@
       <c r="U57">
         <v>0</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G58">
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I58">
         <v>32</v>
@@ -4220,13 +3872,13 @@
         <v>61</v>
       </c>
       <c r="K58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L58" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="O58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4240,28 +3892,22 @@
       <c r="U58">
         <v>0</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G59">
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I59">
         <v>33</v>
@@ -4270,13 +3916,13 @@
         <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L59" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4290,28 +3936,22 @@
       <c r="U59">
         <v>0</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G60">
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I60">
         <v>33</v>
@@ -4320,13 +3960,13 @@
         <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L60" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4340,28 +3980,22 @@
       <c r="U60">
         <v>0</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G61">
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I61">
         <v>33</v>
@@ -4370,13 +4004,13 @@
         <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L61" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O61" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4390,28 +4024,22 @@
       <c r="U61">
         <v>0</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I62">
         <v>34</v>
@@ -4420,13 +4048,13 @@
         <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L62" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="O62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4440,28 +4068,22 @@
       <c r="U62">
         <v>0</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G63">
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I63">
         <v>35</v>
@@ -4470,13 +4092,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L63" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="O63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4490,28 +4112,22 @@
       <c r="U63">
         <v>0</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G64">
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I64">
         <v>36</v>
@@ -4520,13 +4136,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L64" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="O64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4540,28 +4156,22 @@
       <c r="U64">
         <v>0</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G65">
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I65">
         <v>37</v>
@@ -4570,13 +4180,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L65" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4590,28 +4200,22 @@
       <c r="U65">
         <v>0</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G66">
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I66">
         <v>37</v>
@@ -4620,13 +4224,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L66" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4640,28 +4244,22 @@
       <c r="U66">
         <v>0</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G67">
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I67">
         <v>38</v>
@@ -4670,13 +4268,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L67" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O67" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4690,28 +4288,22 @@
       <c r="U67">
         <v>0</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G68">
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I68">
         <v>38</v>
@@ -4720,13 +4312,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L68" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O68" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4740,28 +4332,22 @@
       <c r="U68">
         <v>0</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G69">
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I69">
         <v>39</v>
@@ -4770,13 +4356,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L69" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -4790,28 +4376,22 @@
       <c r="U69">
         <v>0</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G70">
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I70">
         <v>39</v>
@@ -4820,13 +4400,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L70" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O70" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -4840,28 +4420,22 @@
       <c r="U70">
         <v>0</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G71">
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I71">
         <v>39</v>
@@ -4870,13 +4444,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L71" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O71" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -4890,28 +4464,22 @@
       <c r="U71">
         <v>0</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G72">
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I72">
         <v>41</v>
@@ -4920,13 +4488,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L72" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="O72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -4940,28 +4508,22 @@
       <c r="U72">
         <v>0</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G73">
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -4970,13 +4532,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L73" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="O73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -4990,28 +4552,22 @@
       <c r="U73">
         <v>0</v>
       </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G74">
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I74">
         <v>44</v>
@@ -5020,13 +4576,13 @@
         <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L74" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -5040,28 +4596,22 @@
       <c r="U74">
         <v>0</v>
       </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G75">
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I75">
         <v>44</v>
@@ -5070,13 +4620,13 @@
         <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L75" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -5090,28 +4640,22 @@
       <c r="U75">
         <v>0</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G76">
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I76">
         <v>45</v>
@@ -5120,13 +4664,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L76" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="O76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5140,28 +4684,22 @@
       <c r="U76">
         <v>0</v>
       </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G77">
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I77">
         <v>46</v>
@@ -5170,13 +4708,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L77" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -5190,28 +4728,22 @@
       <c r="U77">
         <v>0</v>
       </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G78">
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I78">
         <v>46</v>
@@ -5220,13 +4752,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L78" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -5240,28 +4772,22 @@
       <c r="U78">
         <v>0</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G79">
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I79">
         <v>46</v>
@@ -5270,13 +4796,13 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L79" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -5290,28 +4816,22 @@
       <c r="U79">
         <v>0</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G80">
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I80">
         <v>48</v>
@@ -5320,13 +4840,13 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L80" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="O80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -5340,28 +4860,22 @@
       <c r="U80">
         <v>0</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G81">
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I81">
         <v>49</v>
@@ -5370,13 +4884,13 @@
         <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L81" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="O81" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5390,28 +4904,22 @@
       <c r="U81">
         <v>0</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G82">
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -5420,13 +4928,13 @@
         <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L82" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5440,28 +4948,22 @@
       <c r="U82">
         <v>0</v>
       </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G83">
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -5470,13 +4972,13 @@
         <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L83" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O83" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5490,28 +4992,22 @@
       <c r="U83">
         <v>0</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G84">
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -5520,13 +5016,13 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L84" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5540,28 +5036,22 @@
       <c r="U84">
         <v>0</v>
       </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G85">
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I85">
         <v>51</v>
@@ -5570,13 +5060,13 @@
         <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L85" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -5590,28 +5080,22 @@
       <c r="U85">
         <v>0</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G86">
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I86">
         <v>51</v>
@@ -5620,13 +5104,13 @@
         <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L86" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5640,28 +5124,22 @@
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G87">
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I87">
         <v>51</v>
@@ -5670,13 +5148,13 @@
         <v>95</v>
       </c>
       <c r="K87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L87" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -5690,28 +5168,22 @@
       <c r="U87">
         <v>0</v>
       </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G88">
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I88">
         <v>51</v>
@@ -5720,13 +5192,13 @@
         <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L88" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -5740,28 +5212,22 @@
       <c r="U88">
         <v>0</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G89">
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I89">
         <v>51</v>
@@ -5770,13 +5236,13 @@
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L89" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O89" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -5790,28 +5256,22 @@
       <c r="U89">
         <v>0</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G90">
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I90">
         <v>51</v>
@@ -5820,13 +5280,13 @@
         <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L90" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -5840,28 +5300,22 @@
       <c r="U90">
         <v>0</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G91">
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I91">
         <v>51</v>
@@ -5870,13 +5324,13 @@
         <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L91" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -5890,28 +5344,22 @@
       <c r="U91">
         <v>0</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G92">
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I92">
         <v>51</v>
@@ -5920,13 +5368,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L92" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O92" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5940,28 +5388,22 @@
       <c r="U92">
         <v>0</v>
       </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G93">
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I93">
         <v>53</v>
@@ -5970,13 +5412,13 @@
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L93" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="O93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5990,28 +5432,22 @@
       <c r="U93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G94">
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I94">
         <v>54</v>
@@ -6020,13 +5456,13 @@
         <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L94" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6040,28 +5476,22 @@
       <c r="U94">
         <v>0</v>
       </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G95">
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I95">
         <v>54</v>
@@ -6070,13 +5500,13 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L95" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -6090,28 +5520,22 @@
       <c r="U95">
         <v>0</v>
       </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G96">
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I96">
         <v>55</v>
@@ -6120,13 +5544,13 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L96" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6140,28 +5564,22 @@
       <c r="U96">
         <v>0</v>
       </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G97">
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I97">
         <v>55</v>
@@ -6170,13 +5588,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L97" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -6190,28 +5608,22 @@
       <c r="U97">
         <v>0</v>
       </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G98">
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I98">
         <v>56</v>
@@ -6220,13 +5632,13 @@
         <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L98" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="O98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -6240,28 +5652,22 @@
       <c r="U98">
         <v>0</v>
       </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G99">
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I99">
         <v>57</v>
@@ -6270,13 +5676,13 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L99" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="O99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -6290,28 +5696,22 @@
       <c r="U99">
         <v>0</v>
       </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G100">
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I100">
         <v>58</v>
@@ -6320,13 +5720,13 @@
         <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L100" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O100" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -6340,28 +5740,22 @@
       <c r="U100">
         <v>0</v>
       </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G101">
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I101">
         <v>58</v>
@@ -6370,13 +5764,13 @@
         <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L101" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O101" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6390,28 +5784,22 @@
       <c r="U101">
         <v>0</v>
       </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G102">
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I102">
         <v>59</v>
@@ -6420,13 +5808,13 @@
         <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L102" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="O102" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -6440,28 +5828,22 @@
       <c r="U102">
         <v>0</v>
       </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G103">
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I103">
         <v>60</v>
@@ -6470,13 +5852,13 @@
         <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L103" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="O103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -6490,28 +5872,22 @@
       <c r="U103">
         <v>0</v>
       </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G104">
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I104">
         <v>61</v>
@@ -6520,13 +5896,13 @@
         <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L104" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="O104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -6540,28 +5916,22 @@
       <c r="U104">
         <v>0</v>
       </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G105">
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I105">
         <v>63</v>
@@ -6570,13 +5940,13 @@
         <v>110</v>
       </c>
       <c r="K105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L105" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="O105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -6590,28 +5960,22 @@
       <c r="U105">
         <v>0</v>
       </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G106">
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I106">
         <v>64</v>
@@ -6620,13 +5984,13 @@
         <v>111</v>
       </c>
       <c r="K106" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L106" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="O106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -6640,28 +6004,22 @@
       <c r="U106">
         <v>0</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G107">
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I107">
         <v>67</v>
@@ -6670,13 +6028,13 @@
         <v>115</v>
       </c>
       <c r="K107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L107" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -6690,28 +6048,22 @@
       <c r="U107">
         <v>0</v>
       </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G108">
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I108">
         <v>67</v>
@@ -6720,13 +6072,13 @@
         <v>115</v>
       </c>
       <c r="K108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L108" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -6740,28 +6092,22 @@
       <c r="U108">
         <v>0</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G109">
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I109">
         <v>68</v>
@@ -6770,13 +6116,13 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L109" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="O109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -6790,28 +6136,22 @@
       <c r="U109">
         <v>0</v>
       </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G110">
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I110">
         <v>70</v>
@@ -6820,13 +6160,13 @@
         <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L110" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -6840,28 +6180,22 @@
       <c r="U110">
         <v>0</v>
       </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G111">
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I111">
         <v>70</v>
@@ -6870,13 +6204,13 @@
         <v>119</v>
       </c>
       <c r="K111" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L111" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -6890,28 +6224,22 @@
       <c r="U111">
         <v>0</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G112">
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I112">
         <v>70</v>
@@ -6920,13 +6248,13 @@
         <v>119</v>
       </c>
       <c r="K112" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L112" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O112" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -6940,28 +6268,22 @@
       <c r="U112">
         <v>0</v>
       </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G113">
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I113">
         <v>70</v>
@@ -6970,13 +6292,13 @@
         <v>119</v>
       </c>
       <c r="K113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -6990,28 +6312,22 @@
       <c r="U113">
         <v>0</v>
       </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G114">
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I114">
         <v>70</v>
@@ -7020,13 +6336,13 @@
         <v>119</v>
       </c>
       <c r="K114" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -7040,28 +6356,22 @@
       <c r="U114">
         <v>0</v>
       </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G115">
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I115">
         <v>70</v>
@@ -7070,13 +6380,13 @@
         <v>119</v>
       </c>
       <c r="K115" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -7090,28 +6400,22 @@
       <c r="U115">
         <v>0</v>
       </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G116">
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I116">
         <v>70</v>
@@ -7120,13 +6424,13 @@
         <v>119</v>
       </c>
       <c r="K116" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O116" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -7138,12 +6442,6 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="314">
   <si>
     <t>p25_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1314,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U116"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,22 +1387,25 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1408,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="O2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1428,22 +1434,25 @@
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1452,13 +1461,13 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="O3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1472,22 +1481,25 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1496,13 +1508,13 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1516,22 +1528,25 @@
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1540,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1560,22 +1575,25 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1584,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1604,22 +1622,25 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1628,13 +1649,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1648,22 +1669,25 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1672,13 +1696,13 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="O8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1692,22 +1716,25 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1716,13 +1743,13 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1736,22 +1763,25 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1760,13 +1790,13 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L10" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="O10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1780,22 +1810,25 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1804,13 +1837,13 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="O11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1824,22 +1857,25 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1848,13 +1884,13 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="O12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1868,22 +1904,25 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1892,13 +1931,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1912,22 +1951,25 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1936,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1956,22 +1998,25 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I15">
         <v>9</v>
@@ -1980,13 +2025,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="O15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2000,22 +2045,25 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -2024,13 +2072,13 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="O16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2044,22 +2092,25 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I17">
         <v>11</v>
@@ -2068,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2088,22 +2139,25 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -2112,13 +2166,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2132,22 +2186,25 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I19">
         <v>11</v>
@@ -2156,13 +2213,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2176,22 +2233,25 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I20">
         <v>11</v>
@@ -2200,13 +2260,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2220,22 +2280,25 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -2244,13 +2307,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2264,22 +2327,25 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I22">
         <v>11</v>
@@ -2288,13 +2354,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="O22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2308,22 +2374,25 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I23">
         <v>12</v>
@@ -2332,13 +2401,13 @@
         <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2352,22 +2421,25 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -2376,13 +2448,13 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2396,22 +2468,25 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2420,13 +2495,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="O25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2440,22 +2515,25 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I26">
         <v>13</v>
@@ -2464,13 +2542,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="O26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2484,22 +2562,25 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -2508,13 +2589,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L27" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="O27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2528,22 +2609,25 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I28">
         <v>16</v>
@@ -2552,13 +2636,13 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="O28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2572,22 +2656,25 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -2596,13 +2683,13 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2616,22 +2703,25 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G30">
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -2640,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="O30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2660,22 +2750,25 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G31">
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I31">
         <v>19</v>
@@ -2684,13 +2777,13 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2704,22 +2797,25 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G32">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I32">
         <v>19</v>
@@ -2728,13 +2824,13 @@
         <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2748,22 +2844,25 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G33">
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I33">
         <v>19</v>
@@ -2772,13 +2871,13 @@
         <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="O33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2792,22 +2891,25 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G34">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I34">
         <v>20</v>
@@ -2816,13 +2918,13 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="O34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2836,22 +2938,25 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G35">
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I35">
         <v>21</v>
@@ -2860,13 +2965,13 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2880,22 +2985,25 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G36">
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I36">
         <v>21</v>
@@ -2904,13 +3012,13 @@
         <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="O36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2924,22 +3032,25 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G37">
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37">
         <v>22</v>
@@ -2948,13 +3059,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2968,22 +3079,25 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G38">
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I38">
         <v>22</v>
@@ -2992,13 +3106,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="O38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3012,22 +3126,25 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G39">
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I39">
         <v>23</v>
@@ -3036,13 +3153,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="O39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3056,22 +3173,25 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G40">
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I40">
         <v>24</v>
@@ -3080,13 +3200,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L40" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O40" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3100,22 +3220,25 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G41">
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I41">
         <v>24</v>
@@ -3124,13 +3247,13 @@
         <v>51</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L41" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3144,22 +3267,25 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G42">
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I42">
         <v>24</v>
@@ -3168,13 +3294,13 @@
         <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3188,22 +3314,25 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I43">
         <v>24</v>
@@ -3212,13 +3341,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L43" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="O43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3232,22 +3361,25 @@
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G44">
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I44">
         <v>26</v>
@@ -3256,13 +3388,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3276,22 +3408,25 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G45">
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I45">
         <v>26</v>
@@ -3300,13 +3435,13 @@
         <v>55</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="O45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3320,22 +3455,25 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G46">
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I46">
         <v>27</v>
@@ -3344,13 +3482,13 @@
         <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L46" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="O46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3364,22 +3502,25 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G47">
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I47">
         <v>28</v>
@@ -3388,13 +3529,13 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L47" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="O47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3408,22 +3549,25 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G48">
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I48">
         <v>29</v>
@@ -3432,13 +3576,13 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L48" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -3452,22 +3596,25 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G49">
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I49">
         <v>29</v>
@@ -3476,13 +3623,13 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L49" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3496,22 +3643,25 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G50">
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I50">
         <v>29</v>
@@ -3520,13 +3670,13 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L50" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="O50" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3540,22 +3690,25 @@
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I51">
         <v>30</v>
@@ -3564,13 +3717,13 @@
         <v>59</v>
       </c>
       <c r="K51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L51" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -3584,22 +3737,25 @@
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G52">
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I52">
         <v>30</v>
@@ -3608,13 +3764,13 @@
         <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L52" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -3628,22 +3784,25 @@
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G53">
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I53">
         <v>30</v>
@@ -3652,13 +3811,13 @@
         <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L53" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -3672,22 +3831,25 @@
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G54">
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I54">
         <v>30</v>
@@ -3696,13 +3858,13 @@
         <v>59</v>
       </c>
       <c r="K54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L54" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -3716,22 +3878,25 @@
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G55">
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I55">
         <v>30</v>
@@ -3740,13 +3905,13 @@
         <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L55" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="O55" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -3760,22 +3925,25 @@
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G56">
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I56">
         <v>31</v>
@@ -3784,13 +3952,13 @@
         <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L56" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -3804,22 +3972,25 @@
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G57">
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I57">
         <v>31</v>
@@ -3828,13 +3999,13 @@
         <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L57" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="O57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -3848,22 +4019,25 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G58">
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I58">
         <v>32</v>
@@ -3872,13 +4046,13 @@
         <v>61</v>
       </c>
       <c r="K58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L58" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="O58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -3892,22 +4066,25 @@
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G59">
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I59">
         <v>33</v>
@@ -3916,13 +4093,13 @@
         <v>63</v>
       </c>
       <c r="K59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L59" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -3936,22 +4113,25 @@
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G60">
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I60">
         <v>33</v>
@@ -3960,13 +4140,13 @@
         <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L60" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -3980,22 +4160,25 @@
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G61">
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I61">
         <v>33</v>
@@ -4004,13 +4187,13 @@
         <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L61" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="O61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4024,22 +4207,25 @@
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I62">
         <v>34</v>
@@ -4048,13 +4234,13 @@
         <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L62" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="O62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4068,22 +4254,25 @@
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G63">
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I63">
         <v>35</v>
@@ -4092,13 +4281,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L63" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="O63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4112,22 +4301,25 @@
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G64">
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I64">
         <v>36</v>
@@ -4136,13 +4328,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L64" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="O64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4156,22 +4348,25 @@
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G65">
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I65">
         <v>37</v>
@@ -4180,13 +4375,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L65" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4200,22 +4395,25 @@
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G66">
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I66">
         <v>37</v>
@@ -4224,13 +4422,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L66" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="O66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -4244,22 +4442,25 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G67">
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I67">
         <v>38</v>
@@ -4268,13 +4469,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L67" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -4288,22 +4489,25 @@
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G68">
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I68">
         <v>38</v>
@@ -4312,13 +4516,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L68" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="O68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4332,22 +4536,25 @@
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G69">
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I69">
         <v>39</v>
@@ -4356,13 +4563,13 @@
         <v>81</v>
       </c>
       <c r="K69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L69" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -4376,22 +4583,25 @@
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G70">
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I70">
         <v>39</v>
@@ -4400,13 +4610,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L70" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -4420,22 +4630,25 @@
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G71">
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I71">
         <v>39</v>
@@ -4444,13 +4657,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L71" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="O71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -4464,22 +4677,25 @@
       <c r="U71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G72">
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I72">
         <v>41</v>
@@ -4488,13 +4704,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L72" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="O72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -4508,22 +4724,25 @@
       <c r="U72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G73">
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I73">
         <v>42</v>
@@ -4532,13 +4751,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L73" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="O73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -4552,22 +4771,25 @@
       <c r="U73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G74">
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I74">
         <v>44</v>
@@ -4576,13 +4798,13 @@
         <v>87</v>
       </c>
       <c r="K74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L74" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -4596,22 +4818,25 @@
       <c r="U74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G75">
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I75">
         <v>44</v>
@@ -4620,13 +4845,13 @@
         <v>87</v>
       </c>
       <c r="K75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L75" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="O75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -4640,22 +4865,25 @@
       <c r="U75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G76">
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I76">
         <v>45</v>
@@ -4664,13 +4892,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L76" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="O76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -4684,22 +4912,25 @@
       <c r="U76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G77">
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I77">
         <v>46</v>
@@ -4708,13 +4939,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L77" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -4728,22 +4959,25 @@
       <c r="U77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G78">
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I78">
         <v>46</v>
@@ -4752,13 +4986,13 @@
         <v>90</v>
       </c>
       <c r="K78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L78" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -4772,22 +5006,25 @@
       <c r="U78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G79">
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I79">
         <v>46</v>
@@ -4796,13 +5033,13 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L79" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="O79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -4816,22 +5053,25 @@
       <c r="U79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G80">
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I80">
         <v>48</v>
@@ -4840,13 +5080,13 @@
         <v>92</v>
       </c>
       <c r="K80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L80" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="O80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -4860,22 +5100,25 @@
       <c r="U80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G81">
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I81">
         <v>49</v>
@@ -4884,13 +5127,13 @@
         <v>93</v>
       </c>
       <c r="K81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L81" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="O81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -4904,22 +5147,25 @@
       <c r="U81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G82">
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I82">
         <v>50</v>
@@ -4928,13 +5174,13 @@
         <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L82" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O82" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -4948,22 +5194,25 @@
       <c r="U82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G83">
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I83">
         <v>50</v>
@@ -4972,13 +5221,13 @@
         <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L83" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O83" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -4992,22 +5241,25 @@
       <c r="U83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G84">
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I84">
         <v>50</v>
@@ -5016,13 +5268,13 @@
         <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L84" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="O84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5036,22 +5288,25 @@
       <c r="U84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G85">
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I85">
         <v>51</v>
@@ -5060,13 +5315,13 @@
         <v>95</v>
       </c>
       <c r="K85" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L85" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -5080,22 +5335,25 @@
       <c r="U85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G86">
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I86">
         <v>51</v>
@@ -5104,13 +5362,13 @@
         <v>95</v>
       </c>
       <c r="K86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L86" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5124,22 +5382,25 @@
       <c r="U86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G87">
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I87">
         <v>51</v>
@@ -5148,13 +5409,13 @@
         <v>95</v>
       </c>
       <c r="K87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L87" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O87" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -5168,22 +5429,25 @@
       <c r="U87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G88">
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I88">
         <v>51</v>
@@ -5192,13 +5456,13 @@
         <v>95</v>
       </c>
       <c r="K88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L88" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -5212,22 +5476,25 @@
       <c r="U88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G89">
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I89">
         <v>51</v>
@@ -5236,13 +5503,13 @@
         <v>95</v>
       </c>
       <c r="K89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L89" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -5256,22 +5523,25 @@
       <c r="U89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G90">
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I90">
         <v>51</v>
@@ -5280,13 +5550,13 @@
         <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L90" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -5300,22 +5570,25 @@
       <c r="U90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G91">
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I91">
         <v>51</v>
@@ -5324,13 +5597,13 @@
         <v>95</v>
       </c>
       <c r="K91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L91" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O91" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -5344,22 +5617,25 @@
       <c r="U91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G92">
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I92">
         <v>51</v>
@@ -5368,13 +5644,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L92" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="O92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5388,22 +5664,25 @@
       <c r="U92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G93">
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I93">
         <v>53</v>
@@ -5412,13 +5691,13 @@
         <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L93" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="O93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5432,22 +5711,25 @@
       <c r="U93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G94">
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I94">
         <v>54</v>
@@ -5456,13 +5738,13 @@
         <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L94" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -5476,22 +5758,25 @@
       <c r="U94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G95">
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I95">
         <v>54</v>
@@ -5500,13 +5785,13 @@
         <v>99</v>
       </c>
       <c r="K95" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L95" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="O95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -5520,22 +5805,25 @@
       <c r="U95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G96">
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I96">
         <v>55</v>
@@ -5544,13 +5832,13 @@
         <v>100</v>
       </c>
       <c r="K96" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L96" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -5564,22 +5852,25 @@
       <c r="U96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G97">
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I97">
         <v>55</v>
@@ -5588,13 +5879,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L97" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="O97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -5608,22 +5899,25 @@
       <c r="U97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G98">
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I98">
         <v>56</v>
@@ -5632,13 +5926,13 @@
         <v>101</v>
       </c>
       <c r="K98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L98" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="O98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -5652,22 +5946,25 @@
       <c r="U98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G99">
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I99">
         <v>57</v>
@@ -5676,13 +5973,13 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L99" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="O99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -5696,22 +5993,25 @@
       <c r="U99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G100">
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I100">
         <v>58</v>
@@ -5720,13 +6020,13 @@
         <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L100" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O100" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -5740,22 +6040,25 @@
       <c r="U100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G101">
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I101">
         <v>58</v>
@@ -5764,13 +6067,13 @@
         <v>103</v>
       </c>
       <c r="K101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L101" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="O101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -5784,22 +6087,25 @@
       <c r="U101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G102">
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I102">
         <v>59</v>
@@ -5808,13 +6114,13 @@
         <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L102" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="O102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -5828,22 +6134,25 @@
       <c r="U102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G103">
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I103">
         <v>60</v>
@@ -5852,13 +6161,13 @@
         <v>105</v>
       </c>
       <c r="K103" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L103" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="O103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -5872,22 +6181,25 @@
       <c r="U103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G104">
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I104">
         <v>61</v>
@@ -5896,13 +6208,13 @@
         <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L104" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="O104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -5916,22 +6228,25 @@
       <c r="U104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G105">
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I105">
         <v>63</v>
@@ -5940,13 +6255,13 @@
         <v>110</v>
       </c>
       <c r="K105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L105" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="O105" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -5960,22 +6275,25 @@
       <c r="U105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G106">
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I106">
         <v>64</v>
@@ -5984,13 +6302,13 @@
         <v>111</v>
       </c>
       <c r="K106" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L106" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="O106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -6004,22 +6322,25 @@
       <c r="U106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G107">
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I107">
         <v>67</v>
@@ -6028,13 +6349,13 @@
         <v>115</v>
       </c>
       <c r="K107" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L107" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -6048,22 +6369,25 @@
       <c r="U107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G108">
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I108">
         <v>67</v>
@@ -6072,13 +6396,13 @@
         <v>115</v>
       </c>
       <c r="K108" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L108" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="O108" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -6092,22 +6416,25 @@
       <c r="U108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G109">
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I109">
         <v>68</v>
@@ -6116,13 +6443,13 @@
         <v>117</v>
       </c>
       <c r="K109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L109" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="O109" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -6136,22 +6463,25 @@
       <c r="U109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G110">
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I110">
         <v>70</v>
@@ -6160,13 +6490,13 @@
         <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L110" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O110" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -6180,22 +6510,25 @@
       <c r="U110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G111">
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I111">
         <v>70</v>
@@ -6204,13 +6537,13 @@
         <v>119</v>
       </c>
       <c r="K111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L111" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -6224,22 +6557,25 @@
       <c r="U111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G112">
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I112">
         <v>70</v>
@@ -6248,13 +6584,13 @@
         <v>119</v>
       </c>
       <c r="K112" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L112" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -6268,22 +6604,25 @@
       <c r="U112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G113">
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I113">
         <v>70</v>
@@ -6292,13 +6631,13 @@
         <v>119</v>
       </c>
       <c r="K113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O113" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -6312,22 +6651,25 @@
       <c r="U113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G114">
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I114">
         <v>70</v>
@@ -6336,13 +6678,13 @@
         <v>119</v>
       </c>
       <c r="K114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O114" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -6356,22 +6698,25 @@
       <c r="U114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G115">
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I115">
         <v>70</v>
@@ -6380,13 +6725,13 @@
         <v>119</v>
       </c>
       <c r="K115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -6400,22 +6745,25 @@
       <c r="U115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G116">
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I116">
         <v>70</v>
@@ -6424,13 +6772,13 @@
         <v>119</v>
       </c>
       <c r="K116" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="O116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -6442,6 +6790,9 @@
         <v>0</v>
       </c>
       <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -4337,19 +4337,19 @@
         <v>312</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:22">

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -4807,19 +4807,19 @@
         <v>312</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V74">
-        <v>0</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4854,19 +4854,19 @@
         <v>312</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="76" spans="1:22">

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -4807,19 +4807,19 @@
         <v>312</v>
       </c>
       <c r="R74">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0.7999999999999999</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>0.7999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4854,19 +4854,19 @@
         <v>312</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:22">

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -2778,19 +2778,19 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="36">
@@ -2844,19 +2844,19 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="37">

--- a/files/separadas/repeat_p25.xlsx
+++ b/files/separadas/repeat_p25.xlsx
@@ -958,7 +958,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1012,7 +1012,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
@@ -3010,7 +3010,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5548,7 +5548,7 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95">
@@ -5602,7 +5602,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96">
@@ -5980,7 +5980,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103">
@@ -6088,7 +6088,7 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105">
@@ -6142,7 +6142,7 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="106">
@@ -6358,7 +6358,7 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="110">
